--- a/Tables with Data/ALPS_AimTypeMapping.xlsx
+++ b/Tables with Data/ALPS_AimTypeMapping.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23312"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Jobs\ALPS 2019\Tables with Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rwsservices-my.sharepoint.com/personal/robin_wilson_robindigital_co_uk/Documents/Documents/FEA/West London College/Jobs/ALPS Level 3 Target Grade Generator/Tables with Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{829506D2-A513-4838-B69B-04FB76CB7E5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11145" xr2:uid="{89EDF831-9722-4127-9971-5C4401EA1F7D}"/>
   </bookViews>
   <sheets>
-    <sheet name="ALPS_AimTypeMapping" sheetId="3" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,36 +34,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+  <si>
+    <t>LearnAimRefType</t>
+  </si>
   <si>
     <t>Subject</t>
   </si>
   <si>
+    <t>A Level</t>
+  </si>
+  <si>
+    <t>Diploma</t>
+  </si>
+  <si>
+    <t>Certificate</t>
+  </si>
+  <si>
+    <t>Ext Cert/Intro Dip</t>
+  </si>
+  <si>
+    <t>Ext Dip</t>
+  </si>
+  <si>
+    <t>Sub Dip/Ext Cert</t>
+  </si>
+  <si>
     <t>90-credit Dip/Found Dip</t>
-  </si>
-  <si>
-    <t>A Level</t>
-  </si>
-  <si>
-    <t>Certificate</t>
-  </si>
-  <si>
-    <t>Diploma</t>
-  </si>
-  <si>
-    <t>Ext Dip</t>
-  </si>
-  <si>
-    <t>Sub Dip/Ext Cert</t>
-  </si>
-  <si>
-    <t>LearnAimRefType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -406,10 +411,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E460589E-96C5-4586-A91D-A7494BFE2C41}">
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -419,10 +426,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -446,7 +453,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -454,7 +461,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -462,7 +469,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -470,7 +477,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -478,7 +485,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -486,12 +493,12 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1428</v>
+        <v>1426</v>
       </c>
       <c r="B10" t="s">
         <v>5</v>
@@ -499,7 +506,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1455</v>
+        <v>1428</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -507,10 +514,18 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>1455</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>90</v>
       </c>
-      <c r="B12" t="s">
-        <v>1</v>
+      <c r="B13" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
